--- a/REPORTS/REFFERENCE_SPEED_TEST_SHEET.xlsx
+++ b/REPORTS/REFFERENCE_SPEED_TEST_SHEET.xlsx
@@ -280,7 +280,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>

--- a/REPORTS/REFFERENCE_SPEED_TEST_SHEET.xlsx
+++ b/REPORTS/REFFERENCE_SPEED_TEST_SHEET.xlsx
@@ -277,10 +277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,6 +1070,81 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
